--- a/pracResults/TimeTrial2021.xlsx
+++ b/pracResults/TimeTrial2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2020XC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\pracResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB7B243-725F-4C29-B906-4F3CA72661AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3BC9A6-B3A0-49C9-A449-04FB8BA6B24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{614261A0-BA57-4DB4-A692-9779858E51C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{614261A0-BA57-4DB4-A692-9779858E51C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t>Harrison</t>
   </si>
@@ -261,6 +261,15 @@
   </si>
   <si>
     <t>Kirk</t>
+  </si>
+  <si>
+    <t>SP2022</t>
+  </si>
+  <si>
+    <t>Elijah</t>
+  </si>
+  <si>
+    <t>Walters</t>
   </si>
 </sst>
 </file>
@@ -628,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEFFF5C-5984-4F8B-AAF0-891BA323A8B9}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -640,7 +649,7 @@
     <col min="4" max="4" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -689,8 +698,11 @@
       <c r="P1" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -739,8 +751,15 @@
       <c r="P2" s="2">
         <v>1.1990740740740739E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q2" s="2">
+        <v>7.4768518518518526E-3</v>
+      </c>
+      <c r="R2" s="2">
+        <f>Q2-(Q2*0.04)</f>
+        <v>7.1777777777777786E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -771,8 +790,15 @@
       <c r="P3" s="2">
         <v>1.2094907407407408E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q3" s="2">
+        <v>7.5462962962962966E-3</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" ref="R3:R11" si="0">Q3-(Q3*0.04)</f>
+        <v>7.2444444444444448E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>65</v>
       </c>
@@ -807,8 +833,15 @@
       <c r="P4" s="2">
         <v>1.2118055555555556E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q4" s="2">
+        <v>7.4768518518518526E-3</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" si="0"/>
+        <v>7.1777777777777786E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -847,8 +880,15 @@
       <c r="P5" s="2">
         <v>1.2453703703703703E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q5" s="2">
+        <v>7.4074074074074068E-3</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" si="0"/>
+        <v>7.1111111111111106E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -889,8 +929,15 @@
       <c r="P6" s="2">
         <v>1.2569444444444446E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q6" s="2">
+        <v>7.7777777777777767E-3</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" si="0"/>
+        <v>7.4666666666666657E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -929,8 +976,15 @@
       <c r="P7" s="2">
         <v>1.2673611111111109E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q7" s="2">
+        <v>8.4722222222222213E-3</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="0"/>
+        <v>8.1333333333333327E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -971,13 +1025,20 @@
       <c r="P8" s="2">
         <v>1.2685185185185183E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q8" s="2">
+        <v>7.9166666666666673E-3</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -989,118 +1050,126 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2">
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2">
+        <v>7.8472222222222224E-3</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="0"/>
+        <v>7.5333333333333337E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="2">
         <v>3.8888888888888883E-3</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N10" s="2">
         <v>8.2523148148148148E-3</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O10" s="2">
         <v>1.3043981481481483E-2</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P10" s="2">
         <v>1.3599537037037037E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>4.0162037037037033E-3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>8.4143518518518517E-3</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>3.9467592592592592E-3</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <v>8.0324074074074065E-3</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H11" s="2">
         <v>3.7731481481481483E-3</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I11" s="2">
         <v>7.5694444444444446E-3</v>
       </c>
-      <c r="J10" s="2">
-        <f>L10/3.1</f>
+      <c r="J11" s="2">
+        <f>L11/3.1</f>
         <v>3.9613201911589003E-3</v>
       </c>
-      <c r="K10" s="2">
-        <f>L10/3.1*2</f>
+      <c r="K11" s="2">
+        <f>L11/3.1*2</f>
         <v>7.9226403823178006E-3</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L11" s="4">
         <v>1.2280092592592592E-2</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2">
-        <v>7.8240740740740753E-3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>3.8425925925925923E-3</v>
-      </c>
-      <c r="E11" s="2">
-        <v>7.9861111111111122E-3</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3.7847222222222223E-3</v>
-      </c>
-      <c r="G11" s="2">
-        <v>7.743055555555556E-3</v>
-      </c>
-      <c r="H11" s="2">
-        <v>3.7615740740740739E-3</v>
-      </c>
-      <c r="I11" s="2">
-        <v>7.6620370370370366E-3</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="4"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q11" s="2">
+        <v>8.0671296296296307E-3</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="0"/>
+        <v>7.7444444444444453E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7.8240740740740753E-3</v>
+      </c>
       <c r="D12" s="2">
-        <v>4.2476851851851851E-3</v>
+        <v>3.8425925925925923E-3</v>
       </c>
       <c r="E12" s="2">
-        <v>8.3564814814814804E-3</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+        <v>7.9861111111111122E-3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3.7847222222222223E-3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>7.743055555555556E-3</v>
+      </c>
       <c r="H12" s="2">
-        <v>4.2476851851851851E-3</v>
+        <v>3.7615740740740739E-3</v>
       </c>
       <c r="I12" s="2">
-        <v>8.4490740740740741E-3</v>
+        <v>7.6620370370370366E-3</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1110,31 +1179,27 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>4.4791666666666669E-3</v>
+        <v>4.2476851851851851E-3</v>
       </c>
       <c r="E13" s="2">
-        <v>9.3518518518518525E-3</v>
-      </c>
-      <c r="F13" s="2">
-        <v>4.1782407407407402E-3</v>
-      </c>
-      <c r="G13" s="2">
-        <v>8.6689814814814806E-3</v>
-      </c>
+        <v>8.3564814814814804E-3</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="2">
-        <v>4.340277777777778E-3</v>
+        <v>4.2476851851851851E-3</v>
       </c>
       <c r="I13" s="2">
-        <v>8.6342592592592599E-3</v>
+        <v>8.4490740740740741E-3</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1144,14 +1209,32 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="D14" s="2">
+        <v>4.4791666666666669E-3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>9.3518518518518525E-3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4.1782407407407402E-3</v>
+      </c>
+      <c r="G14" s="2">
+        <v>8.6689814814814806E-3</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4.340277777777778E-3</v>
+      </c>
+      <c r="I14" s="2">
+        <v>8.6342592592592599E-3</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
@@ -1160,217 +1243,200 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
         <v>4.6643518518518518E-3</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>9.3981481481481485E-3</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16" s="2">
         <v>4.5717592592592589E-3</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G16" s="2">
         <v>8.9930555555555545E-3</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H16" s="2">
         <v>4.5138888888888893E-3</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I16" s="2">
         <v>8.9120370370370378E-3</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2">
-        <v>1.9675925925925928E-3</v>
-      </c>
-      <c r="L15" s="4">
-        <v>4.0509259259259257E-3</v>
-      </c>
-      <c r="M15" s="2">
-        <v>4.4675925925925933E-3</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" ref="N15:N28" si="0">P15-M15</f>
-        <v>4.5949074074074061E-3</v>
-      </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2">
-        <v>9.0624999999999994E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="2">
-        <v>9.7916666666666655E-3</v>
-      </c>
-      <c r="D16" s="2">
-        <v>4.6064814814814814E-3</v>
-      </c>
-      <c r="E16" s="2">
-        <v>9.432870370370371E-3</v>
-      </c>
-      <c r="F16" s="2">
-        <v>4.5833333333333334E-3</v>
-      </c>
-      <c r="G16" s="2">
-        <v>9.3287037037037036E-3</v>
-      </c>
-      <c r="H16" s="2">
-        <v>4.4907407407407405E-3</v>
-      </c>
-      <c r="I16" s="2">
-        <v>9.0740740740740729E-3</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2">
-        <v>4.7685185185185183E-3</v>
+        <v>1.9675925925925928E-3</v>
       </c>
       <c r="L16" s="4">
-        <v>9.8611111111111104E-3</v>
+        <v>4.0509259259259257E-3</v>
       </c>
       <c r="M16" s="2">
-        <v>4.4791666666666669E-3</v>
+        <v>4.4675925925925933E-3</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="0"/>
-        <v>4.6527777777777774E-3</v>
+        <f t="shared" ref="N16:N29" si="1">P16-M16</f>
+        <v>4.5949074074074061E-3</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2">
-        <v>9.1319444444444443E-3</v>
+        <v>9.0624999999999994E-3</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2">
-        <v>1.0439814814814813E-2</v>
+        <v>9.7916666666666655E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>5.1504629629629635E-3</v>
+        <v>4.6064814814814814E-3</v>
       </c>
       <c r="E17" s="2">
-        <v>1.042824074074074E-2</v>
+        <v>9.432870370370371E-3</v>
       </c>
       <c r="F17" s="2">
-        <v>4.8611111111111112E-3</v>
+        <v>4.5833333333333334E-3</v>
       </c>
       <c r="G17" s="2">
-        <v>9.8842592592592576E-3</v>
+        <v>9.3287037037037036E-3</v>
       </c>
       <c r="H17" s="2">
-        <v>4.7916666666666672E-3</v>
+        <v>4.4907407407407405E-3</v>
       </c>
       <c r="I17" s="2">
-        <v>9.6296296296296303E-3</v>
+        <v>9.0740740740740729E-3</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="4"/>
+      <c r="K17" s="2">
+        <v>4.7685185185185183E-3</v>
+      </c>
+      <c r="L17" s="4">
+        <v>9.8611111111111104E-3</v>
+      </c>
       <c r="M17" s="2">
-        <v>4.4907407407407405E-3</v>
+        <v>4.4791666666666669E-3</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="0"/>
-        <v>4.7222222222222223E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.6527777777777774E-3</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2">
-        <v>9.2129629629629627E-3</v>
+        <v>9.1319444444444443E-3</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.0439814814814813E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5.1504629629629635E-3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.042824074074074E-2</v>
+      </c>
       <c r="F18" s="2">
-        <v>5.1736111111111115E-3</v>
+        <v>4.8611111111111112E-3</v>
       </c>
       <c r="G18" s="2">
-        <v>1.0300925925925927E-2</v>
+        <v>9.8842592592592576E-3</v>
       </c>
       <c r="H18" s="2">
-        <v>4.9652777777777777E-3</v>
+        <v>4.7916666666666672E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>9.7337962962962977E-3</v>
+        <v>9.6296296296296303E-3</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
       <c r="M18" s="2">
-        <v>4.6527777777777774E-3</v>
+        <v>4.4907407407407405E-3</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="0"/>
-        <v>4.6412037037037038E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.7222222222222223E-3</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2">
-        <v>9.2939814814814812E-3</v>
+        <v>9.2129629629629627E-3</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="F19" s="2">
+        <v>5.1736111111111115E-3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.0300925925925927E-2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>4.9652777777777777E-3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>9.7337962962962977E-3</v>
+      </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="2">
-        <v>4.5601851851851853E-3</v>
-      </c>
-      <c r="L19" s="4">
-        <v>9.432870370370371E-3</v>
-      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="4"/>
       <c r="M19" s="2">
-        <v>4.4907407407407405E-3</v>
+        <v>4.6527777777777774E-3</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="0"/>
-        <v>4.8148148148148143E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.6412037037037038E-3</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2">
-        <v>9.3055555555555548E-3</v>
+        <v>9.2939814814814812E-3</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1380,141 +1446,145 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="K20" s="2">
+        <v>4.5601851851851853E-3</v>
+      </c>
+      <c r="L20" s="4">
+        <v>9.432870370370371E-3</v>
+      </c>
       <c r="M20" s="2">
         <v>4.4907407407407405E-3</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="0"/>
-        <v>4.8726851851851856E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.8148148148148143E-3</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2">
-        <v>9.3634259259259261E-3</v>
+        <v>9.3055555555555548E-3</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2">
-        <v>4.9652777777777777E-3</v>
-      </c>
-      <c r="I21" s="2">
-        <v>9.7337962962962977E-3</v>
-      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2">
-        <v>4.7685185185185183E-3</v>
-      </c>
-      <c r="L21" s="4">
-        <v>9.8611111111111104E-3</v>
-      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="2">
-        <v>4.8611111111111112E-3</v>
+        <v>4.4907407407407405E-3</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="0"/>
-        <v>4.9768518518518521E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.8726851851851856E-3</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2">
-        <v>9.8379629629629633E-3</v>
+        <v>9.3634259259259261E-3</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="H22" s="2">
+        <v>4.9652777777777777E-3</v>
+      </c>
+      <c r="I22" s="2">
+        <v>9.7337962962962977E-3</v>
+      </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="K22" s="2">
+        <v>4.7685185185185183E-3</v>
+      </c>
+      <c r="L22" s="4">
+        <v>9.8611111111111104E-3</v>
+      </c>
       <c r="M22" s="2">
-        <v>4.8263888888888887E-3</v>
+        <v>4.8611111111111112E-3</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="0"/>
-        <v>5.138888888888889E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.9768518518518521E-3</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2">
-        <v>9.9652777777777778E-3</v>
+        <v>9.8379629629629633E-3</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2">
-        <v>4.9652777777777777E-3</v>
-      </c>
-      <c r="I23" s="2">
-        <v>9.6643518518518511E-3</v>
-      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="4"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="2">
-        <v>4.8958333333333328E-3</v>
+        <v>4.8263888888888887E-3</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="0"/>
-        <v>5.115740740740741E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.138888888888889E-3</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2">
-        <v>1.0011574074074074E-2</v>
+        <v>9.9652777777777778E-3</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="H24" s="2">
+        <v>4.9652777777777777E-3</v>
+      </c>
+      <c r="I24" s="2">
+        <v>9.6643518518518511E-3</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="L24" s="4"/>
       <c r="M24" s="2">
         <v>4.8958333333333328E-3</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.115740740740741E-3</v>
       </c>
       <c r="O24" s="2"/>
@@ -1524,225 +1594,220 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2">
-        <v>5.138888888888889E-3</v>
-      </c>
-      <c r="I25" s="2">
-        <v>1.0335648148148148E-2</v>
-      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2">
-        <v>5.0462962962962961E-3</v>
-      </c>
-      <c r="L25" s="4">
-        <v>1.0358796296296295E-2</v>
-      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
       <c r="M25" s="2">
-        <v>4.9652777777777777E-3</v>
+        <v>4.8958333333333328E-3</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="0"/>
-        <v>5.0694444444444433E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.115740740740741E-3</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2">
-        <v>1.0034722222222221E-2</v>
+        <v>1.0011574074074074E-2</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2">
-        <v>5.2777777777777771E-3</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1.1203703703703704E-2</v>
-      </c>
-      <c r="F26" s="2">
-        <v>5.2430555555555555E-3</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1.0925925925925924E-2</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2">
+        <v>5.138888888888889E-3</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1.0335648148148148E-2</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2">
-        <v>2.3148148148148151E-3</v>
+        <v>5.0462962962962961E-3</v>
       </c>
       <c r="L26" s="4">
-        <v>4.7569444444444447E-3</v>
+        <v>1.0358796296296295E-2</v>
       </c>
       <c r="M26" s="2">
-        <v>5.0115740740740737E-3</v>
+        <v>4.9652777777777777E-3</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" si="0"/>
-        <v>5.4398148148148166E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.0694444444444433E-3</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2">
-        <v>1.045138888888889E-2</v>
+        <v>1.0034722222222221E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
-        <v>4.9884259259259265E-3</v>
+        <v>5.2777777777777771E-3</v>
       </c>
       <c r="E27" s="2">
-        <v>1.0659722222222221E-2</v>
+        <v>1.1203703703703704E-2</v>
       </c>
       <c r="F27" s="2">
-        <v>4.8842592592592592E-3</v>
+        <v>5.2430555555555555E-3</v>
       </c>
       <c r="G27" s="2">
-        <v>1.0300925925925927E-2</v>
-      </c>
-      <c r="H27" s="2">
-        <v>5.138888888888889E-3</v>
-      </c>
-      <c r="I27" s="2">
-        <v>1.0833333333333334E-2</v>
-      </c>
+        <v>1.0925925925925924E-2</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="4"/>
+      <c r="K27" s="2">
+        <v>2.3148148148148151E-3</v>
+      </c>
+      <c r="L27" s="4">
+        <v>4.7569444444444447E-3</v>
+      </c>
       <c r="M27" s="2">
         <v>5.0115740740740737E-3</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="0"/>
-        <v>5.4513888888888902E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.4398148148148166E-3</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2">
-        <v>1.0462962962962964E-2</v>
+        <v>1.045138888888889E-2</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="2">
+        <v>4.9884259259259265E-3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1.0659722222222221E-2</v>
+      </c>
       <c r="F28" s="2">
-        <v>5.185185185185185E-3</v>
+        <v>4.8842592592592592E-3</v>
       </c>
       <c r="G28" s="2">
-        <v>1.0706018518518517E-2</v>
+        <v>1.0300925925925927E-2</v>
       </c>
       <c r="H28" s="2">
-        <v>5.6134259259259271E-3</v>
+        <v>5.138888888888889E-3</v>
       </c>
       <c r="I28" s="2">
-        <v>1.1967592592592592E-2</v>
+        <v>1.0833333333333334E-2</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="2">
-        <v>2.3611111111111111E-3</v>
-      </c>
-      <c r="L28" s="4">
-        <v>4.8611111111111112E-3</v>
-      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="4"/>
       <c r="M28" s="2">
-        <v>5.0925925925925921E-3</v>
+        <v>5.0115740740740737E-3</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="0"/>
-        <v>5.6018518518518518E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.4513888888888902E-3</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2">
-        <v>1.0694444444444444E-2</v>
+        <v>1.0462962962962964E-2</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="2">
-        <v>9.780092592592592E-3</v>
-      </c>
-      <c r="D29" s="2">
-        <v>4.6064814814814814E-3</v>
-      </c>
-      <c r="E29" s="2">
-        <v>9.5023148148148159E-3</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="2">
-        <v>4.5833333333333334E-3</v>
+        <v>5.185185185185185E-3</v>
       </c>
       <c r="G29" s="2">
-        <v>9.5023148148148159E-3</v>
+        <v>1.0706018518518517E-2</v>
       </c>
       <c r="H29" s="2">
-        <v>4.4907407407407405E-3</v>
+        <v>5.6134259259259271E-3</v>
       </c>
       <c r="I29" s="2">
-        <v>8.8541666666666664E-3</v>
+        <v>1.1967592592592592E-2</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="K29" s="2">
+        <v>2.3611111111111111E-3</v>
+      </c>
+      <c r="L29" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="M29" s="2">
+        <v>5.0925925925925921E-3</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="1"/>
+        <v>5.6018518518518518E-3</v>
+      </c>
       <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
+      <c r="P29" s="2">
+        <v>1.0694444444444444E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="C30" s="2">
+        <v>9.780092592592592E-3</v>
+      </c>
       <c r="D30" s="2">
-        <v>5.208333333333333E-3</v>
+        <v>4.6064814814814814E-3</v>
       </c>
       <c r="E30" s="2">
-        <v>1.113425925925926E-2</v>
+        <v>9.5023148148148159E-3</v>
       </c>
       <c r="F30" s="2">
-        <v>4.8611111111111112E-3</v>
+        <v>4.5833333333333334E-3</v>
       </c>
       <c r="G30" s="2">
-        <v>9.6759259259259264E-3</v>
+        <v>9.5023148148148159E-3</v>
       </c>
       <c r="H30" s="2">
-        <v>4.7916666666666672E-3</v>
+        <v>4.4907407407407405E-3</v>
       </c>
       <c r="I30" s="2">
-        <v>9.2013888888888892E-3</v>
+        <v>8.8541666666666664E-3</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -1754,29 +1819,33 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="D31" s="2">
+        <v>5.208333333333333E-3</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1.113425925925926E-2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="G31" s="2">
+        <v>9.6759259259259264E-3</v>
+      </c>
       <c r="H31" s="2">
-        <v>4.9652777777777777E-3</v>
+        <v>4.7916666666666672E-3</v>
       </c>
       <c r="I31" s="2">
-        <v>9.7222222222222224E-3</v>
+        <v>9.2013888888888892E-3</v>
       </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="2">
-        <v>2.3263888888888887E-3</v>
-      </c>
-      <c r="L31" s="4">
-        <v>4.7685185185185183E-3</v>
-      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="4"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -1784,10 +1853,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1795,14 +1864,18 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2">
-        <v>5.1041666666666666E-3</v>
+        <v>4.9652777777777777E-3</v>
       </c>
       <c r="I32" s="2">
-        <v>1.0300925925925927E-2</v>
+        <v>9.7222222222222224E-3</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="4"/>
+      <c r="K32" s="2">
+        <v>2.3263888888888887E-3</v>
+      </c>
+      <c r="L32" s="4">
+        <v>4.7685185185185183E-3</v>
+      </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -1810,25 +1883,21 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2">
-        <v>4.9537037037037041E-3</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1.2465277777777777E-2</v>
-      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2">
-        <v>5.3356481481481484E-3</v>
+        <v>5.1041666666666666E-3</v>
       </c>
       <c r="I33" s="2">
-        <v>1.1342592592592592E-2</v>
+        <v>1.0300925925925927E-2</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -1840,18 +1909,26 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="D34" s="2">
+        <v>4.9537037037037041E-3</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1.2465277777777777E-2</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="H34" s="2">
+        <v>5.3356481481481484E-3</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1.1342592592592592E-2</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
@@ -1862,10 +1939,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1882,9 +1959,31 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P11">
-    <sortCondition ref="P2:P11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P12">
+    <sortCondition ref="P2:P12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
